--- a/dados_tratados8.0.xlsx
+++ b/dados_tratados8.0.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\46859443804\Documents\Streamlit\Limpa_Brasil\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87496A95-D1B6-493E-B389-D234B6A1FCDE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5239DDA0-9209-40F3-A6F0-7C200AAE0FFA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -798,6 +798,20 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -825,20 +839,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -853,20 +853,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D4584BBC-C0F4-4C68-A33F-2CEC667BF4E5}" name="Tabela1" displayName="Tabela1" ref="A1:BW86" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
-  <autoFilter ref="A1:BW86" xr:uid="{2E1FA7E7-42C0-40C3-AD2F-2BA46B59CB6A}">
-    <filterColumn colId="13">
-      <filters>
-        <filter val="0"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D4584BBC-C0F4-4C68-A33F-2CEC667BF4E5}" name="Tabela1" displayName="Tabela1" ref="A1:BW86" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
+  <autoFilter ref="A1:BW86" xr:uid="{2E1FA7E7-42C0-40C3-AD2F-2BA46B59CB6A}"/>
   <tableColumns count="75">
     <tableColumn id="1" xr3:uid="{9548EF1A-0241-4EA9-8DCA-0FFB62CF1A9A}" name="Nome"/>
     <tableColumn id="2" xr3:uid="{367CB8D9-B33E-48A6-A34C-C693A14ED9AC}" name="Representa alguma Organização/ONG/Escola/Empresa etc? Se sim, descreva o nome"/>
     <tableColumn id="3" xr3:uid="{4CD609D1-2AD2-49E5-8DF5-B58F2C941C01}" name="CEP"/>
     <tableColumn id="4" xr3:uid="{54D82C36-F528-4E94-A308-B517DDBC2DEB}" name="Participante como "/>
-    <tableColumn id="5" xr3:uid="{DD18B1C6-F3EB-41B0-BB27-854FD4004CAB}" name="Número aproximado de participantes:"/>
+    <tableColumn id="5" xr3:uid="{DD18B1C6-F3EB-41B0-BB27-854FD4004CAB}" name="Número aproximado de participantes:">
+      <calculatedColumnFormula>SUM(Tabela1[[#This Row],[Número aproximado de crianças:]:[Número aproximado de idosos:]])</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="6" xr3:uid="{46937426-A5FD-4AF4-A2C6-A5BA0AF191EC}" name="Número aproximado de crianças:"/>
     <tableColumn id="7" xr3:uid="{756ED33E-9CF0-4DEB-8775-F9CAF5CEDC90}" name="Número aproximado de jovens:"/>
     <tableColumn id="8" xr3:uid="{EF9D00C2-0FED-4F72-8195-B97E182E6529}" name="Número aproximado de adultos:"/>
@@ -1229,8 +1225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BW86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D80" sqref="D80"/>
+    <sheetView tabSelected="1" topLeftCell="E31" workbookViewId="0">
+      <selection activeCell="F91" sqref="F91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1530,7 +1526,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -1544,7 +1540,8 @@
         <v>77</v>
       </c>
       <c r="E2">
-        <v>14</v>
+        <f>SUM(Tabela1[[#This Row],[Número aproximado de crianças:]:[Número aproximado de idosos:]])</f>
+        <v>20</v>
       </c>
       <c r="F2">
         <v>4</v>
@@ -1757,7 +1754,13 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:75" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <f>SUM(Tabela1[[#This Row],[Número aproximado de crianças:]:[Número aproximado de idosos:]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>88</v>
       </c>
@@ -1771,7 +1774,8 @@
         <v>77</v>
       </c>
       <c r="E4">
-        <v>50</v>
+        <f>SUM(Tabela1[[#This Row],[Número aproximado de crianças:]:[Número aproximado de idosos:]])</f>
+        <v>42</v>
       </c>
       <c r="F4">
         <v>10</v>
@@ -1984,7 +1988,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>91</v>
       </c>
@@ -1998,6 +2002,7 @@
         <v>77</v>
       </c>
       <c r="E5">
+        <f>SUM(Tabela1[[#This Row],[Número aproximado de crianças:]:[Número aproximado de idosos:]])</f>
         <v>2</v>
       </c>
       <c r="F5">
@@ -2211,7 +2216,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>94</v>
       </c>
@@ -2225,6 +2230,7 @@
         <v>95</v>
       </c>
       <c r="E6">
+        <f>SUM(Tabela1[[#This Row],[Número aproximado de crianças:]:[Número aproximado de idosos:]])</f>
         <v>9</v>
       </c>
       <c r="F6">
@@ -2438,7 +2444,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>98</v>
       </c>
@@ -2452,6 +2458,7 @@
         <v>77</v>
       </c>
       <c r="E7">
+        <f>SUM(Tabela1[[#This Row],[Número aproximado de crianças:]:[Número aproximado de idosos:]])</f>
         <v>20</v>
       </c>
       <c r="F7">
@@ -2665,7 +2672,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>101</v>
       </c>
@@ -2679,7 +2686,8 @@
         <v>77</v>
       </c>
       <c r="E8">
-        <v>12</v>
+        <f>SUM(Tabela1[[#This Row],[Número aproximado de crianças:]:[Número aproximado de idosos:]])</f>
+        <v>13</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -2892,7 +2900,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>101</v>
       </c>
@@ -2906,6 +2914,7 @@
         <v>77</v>
       </c>
       <c r="E9">
+        <f>SUM(Tabela1[[#This Row],[Número aproximado de crianças:]:[Número aproximado de idosos:]])</f>
         <v>10</v>
       </c>
       <c r="F9">
@@ -3119,7 +3128,19 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:75" x14ac:dyDescent="0.3">
+      <c r="E10">
+        <f>SUM(Tabela1[[#This Row],[Número aproximado de crianças:]:[Número aproximado de idosos:]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:75" x14ac:dyDescent="0.3">
+      <c r="E11">
+        <f>SUM(Tabela1[[#This Row],[Número aproximado de crianças:]:[Número aproximado de idosos:]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>107</v>
       </c>
@@ -3133,6 +3154,7 @@
         <v>77</v>
       </c>
       <c r="E12">
+        <f>SUM(Tabela1[[#This Row],[Número aproximado de crianças:]:[Número aproximado de idosos:]])</f>
         <v>7</v>
       </c>
       <c r="F12">
@@ -3346,7 +3368,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>109</v>
       </c>
@@ -3360,6 +3382,7 @@
         <v>95</v>
       </c>
       <c r="E13">
+        <f>SUM(Tabela1[[#This Row],[Número aproximado de crianças:]:[Número aproximado de idosos:]])</f>
         <v>2</v>
       </c>
       <c r="F13">
@@ -3573,7 +3596,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>112</v>
       </c>
@@ -3587,6 +3610,7 @@
         <v>77</v>
       </c>
       <c r="E14">
+        <f>SUM(Tabela1[[#This Row],[Número aproximado de crianças:]:[Número aproximado de idosos:]])</f>
         <v>30</v>
       </c>
       <c r="F14">
@@ -3800,7 +3824,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>116</v>
       </c>
@@ -3814,7 +3838,8 @@
         <v>77</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <f>SUM(Tabela1[[#This Row],[Número aproximado de crianças:]:[Número aproximado de idosos:]])</f>
+        <v>40</v>
       </c>
       <c r="F15">
         <v>20</v>
@@ -4027,7 +4052,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>119</v>
       </c>
@@ -4041,7 +4066,8 @@
         <v>77</v>
       </c>
       <c r="E16">
-        <v>9</v>
+        <f>SUM(Tabela1[[#This Row],[Número aproximado de crianças:]:[Número aproximado de idosos:]])</f>
+        <v>16</v>
       </c>
       <c r="F16">
         <v>3</v>
@@ -4254,7 +4280,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>122</v>
       </c>
@@ -4268,7 +4294,8 @@
         <v>77</v>
       </c>
       <c r="E17">
-        <v>6</v>
+        <f>SUM(Tabela1[[#This Row],[Número aproximado de crianças:]:[Número aproximado de idosos:]])</f>
+        <v>0</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -4481,7 +4508,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>124</v>
       </c>
@@ -4495,7 +4522,8 @@
         <v>77</v>
       </c>
       <c r="E18">
-        <v>7</v>
+        <f>SUM(Tabela1[[#This Row],[Número aproximado de crianças:]:[Número aproximado de idosos:]])</f>
+        <v>0</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -4708,7 +4736,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>126</v>
       </c>
@@ -4722,6 +4750,7 @@
         <v>77</v>
       </c>
       <c r="E19">
+        <f>SUM(Tabela1[[#This Row],[Número aproximado de crianças:]:[Número aproximado de idosos:]])</f>
         <v>20</v>
       </c>
       <c r="F19">
@@ -4935,7 +4964,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>129</v>
       </c>
@@ -4949,7 +4978,8 @@
         <v>95</v>
       </c>
       <c r="E20">
-        <v>19</v>
+        <f>SUM(Tabela1[[#This Row],[Número aproximado de crianças:]:[Número aproximado de idosos:]])</f>
+        <v>35</v>
       </c>
       <c r="F20">
         <v>4</v>
@@ -5162,7 +5192,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>133</v>
       </c>
@@ -5176,7 +5206,8 @@
         <v>77</v>
       </c>
       <c r="E21">
-        <v>21</v>
+        <f>SUM(Tabela1[[#This Row],[Número aproximado de crianças:]:[Número aproximado de idosos:]])</f>
+        <v>8</v>
       </c>
       <c r="F21">
         <v>8</v>
@@ -5389,7 +5420,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>137</v>
       </c>
@@ -5403,6 +5434,7 @@
         <v>77</v>
       </c>
       <c r="E22">
+        <f>SUM(Tabela1[[#This Row],[Número aproximado de crianças:]:[Número aproximado de idosos:]])</f>
         <v>300</v>
       </c>
       <c r="F22">
@@ -5616,7 +5648,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>140</v>
       </c>
@@ -5630,7 +5662,8 @@
         <v>77</v>
       </c>
       <c r="E23">
-        <v>1500</v>
+        <f>SUM(Tabela1[[#This Row],[Número aproximado de crianças:]:[Número aproximado de idosos:]])</f>
+        <v>1400</v>
       </c>
       <c r="F23">
         <v>200</v>
@@ -5843,7 +5876,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>144</v>
       </c>
@@ -5857,7 +5890,8 @@
         <v>77</v>
       </c>
       <c r="E24">
-        <v>25</v>
+        <f>SUM(Tabela1[[#This Row],[Número aproximado de crianças:]:[Número aproximado de idosos:]])</f>
+        <v>23</v>
       </c>
       <c r="F24">
         <v>4</v>
@@ -6070,7 +6104,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>147</v>
       </c>
@@ -6084,7 +6118,8 @@
         <v>77</v>
       </c>
       <c r="E25">
-        <v>50</v>
+        <f>SUM(Tabela1[[#This Row],[Número aproximado de crianças:]:[Número aproximado de idosos:]])</f>
+        <v>67</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -6297,7 +6332,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>149</v>
       </c>
@@ -6311,6 +6346,7 @@
         <v>77</v>
       </c>
       <c r="E26">
+        <f>SUM(Tabela1[[#This Row],[Número aproximado de crianças:]:[Número aproximado de idosos:]])</f>
         <v>5</v>
       </c>
       <c r="F26">
@@ -6524,7 +6560,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>144</v>
       </c>
@@ -6538,7 +6574,8 @@
         <v>77</v>
       </c>
       <c r="E27">
-        <v>15</v>
+        <f>SUM(Tabela1[[#This Row],[Número aproximado de crianças:]:[Número aproximado de idosos:]])</f>
+        <v>20</v>
       </c>
       <c r="F27">
         <v>2</v>
@@ -6751,7 +6788,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>122</v>
       </c>
@@ -6765,6 +6802,7 @@
         <v>77</v>
       </c>
       <c r="E28">
+        <f>SUM(Tabela1[[#This Row],[Número aproximado de crianças:]:[Número aproximado de idosos:]])</f>
         <v>25</v>
       </c>
       <c r="F28">
@@ -6978,7 +7016,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="1:75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>155</v>
       </c>
@@ -6992,6 +7030,7 @@
         <v>95</v>
       </c>
       <c r="E29">
+        <f>SUM(Tabela1[[#This Row],[Número aproximado de crianças:]:[Número aproximado de idosos:]])</f>
         <v>7</v>
       </c>
       <c r="F29">
@@ -7205,7 +7244,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="30" spans="1:75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>159</v>
       </c>
@@ -7219,6 +7258,7 @@
         <v>77</v>
       </c>
       <c r="E30">
+        <f>SUM(Tabela1[[#This Row],[Número aproximado de crianças:]:[Número aproximado de idosos:]])</f>
         <v>220</v>
       </c>
       <c r="F30">
@@ -7432,7 +7472,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="1:75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>163</v>
       </c>
@@ -7446,6 +7486,7 @@
         <v>77</v>
       </c>
       <c r="E31">
+        <f>SUM(Tabela1[[#This Row],[Número aproximado de crianças:]:[Número aproximado de idosos:]])</f>
         <v>4</v>
       </c>
       <c r="F31">
@@ -7659,7 +7700,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="32" spans="1:75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>166</v>
       </c>
@@ -7673,7 +7714,8 @@
         <v>77</v>
       </c>
       <c r="E32">
-        <v>20</v>
+        <f>SUM(Tabela1[[#This Row],[Número aproximado de crianças:]:[Número aproximado de idosos:]])</f>
+        <v>21</v>
       </c>
       <c r="F32">
         <v>2</v>
@@ -7886,7 +7928,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="1:75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>168</v>
       </c>
@@ -7900,6 +7942,7 @@
         <v>95</v>
       </c>
       <c r="E33">
+        <f>SUM(Tabela1[[#This Row],[Número aproximado de crianças:]:[Número aproximado de idosos:]])</f>
         <v>10</v>
       </c>
       <c r="F33">
@@ -8113,7 +8156,13 @@
         <v>87</v>
       </c>
     </row>
-    <row r="35" spans="1:75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:75" x14ac:dyDescent="0.3">
+      <c r="E34">
+        <f>SUM(Tabela1[[#This Row],[Número aproximado de crianças:]:[Número aproximado de idosos:]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>170</v>
       </c>
@@ -8127,7 +8176,8 @@
         <v>95</v>
       </c>
       <c r="E35">
-        <v>20</v>
+        <f>SUM(Tabela1[[#This Row],[Número aproximado de crianças:]:[Número aproximado de idosos:]])</f>
+        <v>22</v>
       </c>
       <c r="F35">
         <v>2</v>
@@ -8340,7 +8390,19 @@
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="1:75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:75" x14ac:dyDescent="0.3">
+      <c r="E36">
+        <f>SUM(Tabela1[[#This Row],[Número aproximado de crianças:]:[Número aproximado de idosos:]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:75" x14ac:dyDescent="0.3">
+      <c r="E37">
+        <f>SUM(Tabela1[[#This Row],[Número aproximado de crianças:]:[Número aproximado de idosos:]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>171</v>
       </c>
@@ -8354,6 +8416,7 @@
         <v>95</v>
       </c>
       <c r="E38">
+        <f>SUM(Tabela1[[#This Row],[Número aproximado de crianças:]:[Número aproximado de idosos:]])</f>
         <v>30</v>
       </c>
       <c r="F38">
@@ -8567,7 +8630,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="39" spans="1:75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>172</v>
       </c>
@@ -8581,6 +8644,7 @@
         <v>77</v>
       </c>
       <c r="E39">
+        <f>SUM(Tabela1[[#This Row],[Número aproximado de crianças:]:[Número aproximado de idosos:]])</f>
         <v>40</v>
       </c>
       <c r="F39">
@@ -8794,7 +8858,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>175</v>
       </c>
@@ -8808,7 +8872,8 @@
         <v>95</v>
       </c>
       <c r="E40">
-        <v>20</v>
+        <f>SUM(Tabela1[[#This Row],[Número aproximado de crianças:]:[Número aproximado de idosos:]])</f>
+        <v>24</v>
       </c>
       <c r="F40">
         <v>2</v>
@@ -9021,7 +9086,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="1:75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>177</v>
       </c>
@@ -9035,6 +9100,7 @@
         <v>77</v>
       </c>
       <c r="E41">
+        <f>SUM(Tabela1[[#This Row],[Número aproximado de crianças:]:[Número aproximado de idosos:]])</f>
         <v>67</v>
       </c>
       <c r="F41">
@@ -9248,7 +9314,13 @@
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="1:75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:75" x14ac:dyDescent="0.3">
+      <c r="E42">
+        <f>SUM(Tabela1[[#This Row],[Número aproximado de crianças:]:[Número aproximado de idosos:]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>179</v>
       </c>
@@ -9262,6 +9334,7 @@
         <v>95</v>
       </c>
       <c r="E43">
+        <f>SUM(Tabela1[[#This Row],[Número aproximado de crianças:]:[Número aproximado de idosos:]])</f>
         <v>20</v>
       </c>
       <c r="F43">
@@ -9475,7 +9548,13 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:75" x14ac:dyDescent="0.3">
+      <c r="E44">
+        <f>SUM(Tabela1[[#This Row],[Número aproximado de crianças:]:[Número aproximado de idosos:]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>180</v>
       </c>
@@ -9489,6 +9568,7 @@
         <v>95</v>
       </c>
       <c r="E45">
+        <f>SUM(Tabela1[[#This Row],[Número aproximado de crianças:]:[Número aproximado de idosos:]])</f>
         <v>12</v>
       </c>
       <c r="F45">
@@ -9702,7 +9782,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="46" spans="1:75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>181</v>
       </c>
@@ -9716,6 +9796,7 @@
         <v>95</v>
       </c>
       <c r="E46">
+        <f>SUM(Tabela1[[#This Row],[Número aproximado de crianças:]:[Número aproximado de idosos:]])</f>
         <v>35</v>
       </c>
       <c r="F46">
@@ -9929,7 +10010,19 @@
         <v>87</v>
       </c>
     </row>
-    <row r="49" spans="1:75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:75" x14ac:dyDescent="0.3">
+      <c r="E47">
+        <f>SUM(Tabela1[[#This Row],[Número aproximado de crianças:]:[Número aproximado de idosos:]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:75" x14ac:dyDescent="0.3">
+      <c r="E48">
+        <f>SUM(Tabela1[[#This Row],[Número aproximado de crianças:]:[Número aproximado de idosos:]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>182</v>
       </c>
@@ -9943,6 +10036,7 @@
         <v>95</v>
       </c>
       <c r="E49">
+        <f>SUM(Tabela1[[#This Row],[Número aproximado de crianças:]:[Número aproximado de idosos:]])</f>
         <v>23</v>
       </c>
       <c r="F49">
@@ -10156,7 +10250,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="50" spans="1:75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>184</v>
       </c>
@@ -10170,7 +10264,8 @@
         <v>77</v>
       </c>
       <c r="E50">
-        <v>40</v>
+        <f>SUM(Tabela1[[#This Row],[Número aproximado de crianças:]:[Número aproximado de idosos:]])</f>
+        <v>41</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -10383,7 +10478,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="51" spans="1:75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>180</v>
       </c>
@@ -10397,6 +10492,7 @@
         <v>95</v>
       </c>
       <c r="E51">
+        <f>SUM(Tabela1[[#This Row],[Número aproximado de crianças:]:[Número aproximado de idosos:]])</f>
         <v>18</v>
       </c>
       <c r="F51">
@@ -10610,7 +10706,13 @@
         <v>87</v>
       </c>
     </row>
-    <row r="53" spans="1:75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:75" x14ac:dyDescent="0.3">
+      <c r="E52">
+        <f>SUM(Tabela1[[#This Row],[Número aproximado de crianças:]:[Número aproximado de idosos:]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>184</v>
       </c>
@@ -10624,6 +10726,7 @@
         <v>77</v>
       </c>
       <c r="E53">
+        <f>SUM(Tabela1[[#This Row],[Número aproximado de crianças:]:[Número aproximado de idosos:]])</f>
         <v>9</v>
       </c>
       <c r="F53">
@@ -10837,7 +10940,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="54" spans="1:75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>187</v>
       </c>
@@ -10851,7 +10954,8 @@
         <v>77</v>
       </c>
       <c r="E54">
-        <v>25</v>
+        <f>SUM(Tabela1[[#This Row],[Número aproximado de crianças:]:[Número aproximado de idosos:]])</f>
+        <v>22</v>
       </c>
       <c r="F54">
         <v>8</v>
@@ -11064,7 +11168,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="55" spans="1:75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>191</v>
       </c>
@@ -11078,6 +11182,7 @@
         <v>77</v>
       </c>
       <c r="E55">
+        <f>SUM(Tabela1[[#This Row],[Número aproximado de crianças:]:[Número aproximado de idosos:]])</f>
         <v>57</v>
       </c>
       <c r="F55">
@@ -11291,7 +11396,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="56" spans="1:75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>194</v>
       </c>
@@ -11305,6 +11410,7 @@
         <v>77</v>
       </c>
       <c r="E56">
+        <f>SUM(Tabela1[[#This Row],[Número aproximado de crianças:]:[Número aproximado de idosos:]])</f>
         <v>1</v>
       </c>
       <c r="F56">
@@ -11518,7 +11624,13 @@
         <v>82</v>
       </c>
     </row>
-    <row r="58" spans="1:75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:75" x14ac:dyDescent="0.3">
+      <c r="E57">
+        <f>SUM(Tabela1[[#This Row],[Número aproximado de crianças:]:[Número aproximado de idosos:]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>196</v>
       </c>
@@ -11532,6 +11644,7 @@
         <v>77</v>
       </c>
       <c r="E58">
+        <f>SUM(Tabela1[[#This Row],[Número aproximado de crianças:]:[Número aproximado de idosos:]])</f>
         <v>15</v>
       </c>
       <c r="F58">
@@ -11745,7 +11858,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="59" spans="1:75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>172</v>
       </c>
@@ -11759,7 +11872,8 @@
         <v>199</v>
       </c>
       <c r="E59">
-        <v>30</v>
+        <f>SUM(Tabela1[[#This Row],[Número aproximado de crianças:]:[Número aproximado de idosos:]])</f>
+        <v>32</v>
       </c>
       <c r="F59">
         <v>4</v>
@@ -11972,7 +12086,25 @@
         <v>82</v>
       </c>
     </row>
-    <row r="63" spans="1:75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:75" x14ac:dyDescent="0.3">
+      <c r="E60">
+        <f>SUM(Tabela1[[#This Row],[Número aproximado de crianças:]:[Número aproximado de idosos:]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:75" x14ac:dyDescent="0.3">
+      <c r="E61">
+        <f>SUM(Tabela1[[#This Row],[Número aproximado de crianças:]:[Número aproximado de idosos:]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:75" x14ac:dyDescent="0.3">
+      <c r="E62">
+        <f>SUM(Tabela1[[#This Row],[Número aproximado de crianças:]:[Número aproximado de idosos:]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>200</v>
       </c>
@@ -11986,6 +12118,7 @@
         <v>201</v>
       </c>
       <c r="E63">
+        <f>SUM(Tabela1[[#This Row],[Número aproximado de crianças:]:[Número aproximado de idosos:]])</f>
         <v>32</v>
       </c>
       <c r="F63">
@@ -12199,7 +12332,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="64" spans="1:75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>203</v>
       </c>
@@ -12213,7 +12346,8 @@
         <v>199</v>
       </c>
       <c r="E64">
-        <v>24</v>
+        <f>SUM(Tabela1[[#This Row],[Número aproximado de crianças:]:[Número aproximado de idosos:]])</f>
+        <v>25</v>
       </c>
       <c r="F64">
         <v>2</v>
@@ -12426,7 +12560,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="65" spans="1:75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>206</v>
       </c>
@@ -12440,6 +12574,7 @@
         <v>199</v>
       </c>
       <c r="E65">
+        <f>SUM(Tabela1[[#This Row],[Número aproximado de crianças:]:[Número aproximado de idosos:]])</f>
         <v>23</v>
       </c>
       <c r="F65">
@@ -12653,7 +12788,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="66" spans="1:75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>210</v>
       </c>
@@ -12667,6 +12802,7 @@
         <v>199</v>
       </c>
       <c r="E66">
+        <f>SUM(Tabela1[[#This Row],[Número aproximado de crianças:]:[Número aproximado de idosos:]])</f>
         <v>30</v>
       </c>
       <c r="F66">
@@ -12880,7 +13016,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="67" spans="1:75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>213</v>
       </c>
@@ -12894,6 +13030,7 @@
         <v>199</v>
       </c>
       <c r="E67">
+        <f>SUM(Tabela1[[#This Row],[Número aproximado de crianças:]:[Número aproximado de idosos:]])</f>
         <v>26</v>
       </c>
       <c r="F67">
@@ -13107,7 +13244,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="68" spans="1:75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>215</v>
       </c>
@@ -13121,6 +13258,7 @@
         <v>199</v>
       </c>
       <c r="E68">
+        <f>SUM(Tabela1[[#This Row],[Número aproximado de crianças:]:[Número aproximado de idosos:]])</f>
         <v>20</v>
       </c>
       <c r="F68">
@@ -13334,7 +13472,13 @@
         <v>82</v>
       </c>
     </row>
-    <row r="70" spans="1:75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:75" x14ac:dyDescent="0.3">
+      <c r="E69">
+        <f>SUM(Tabela1[[#This Row],[Número aproximado de crianças:]:[Número aproximado de idosos:]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>218</v>
       </c>
@@ -13348,7 +13492,8 @@
         <v>199</v>
       </c>
       <c r="E70">
-        <v>1</v>
+        <f>SUM(Tabela1[[#This Row],[Número aproximado de crianças:]:[Número aproximado de idosos:]])</f>
+        <v>0</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -13561,7 +13706,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="71" spans="1:75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>220</v>
       </c>
@@ -13575,6 +13720,7 @@
         <v>199</v>
       </c>
       <c r="E71">
+        <f>SUM(Tabela1[[#This Row],[Número aproximado de crianças:]:[Número aproximado de idosos:]])</f>
         <v>15</v>
       </c>
       <c r="F71">
@@ -13788,7 +13934,13 @@
         <v>82</v>
       </c>
     </row>
-    <row r="73" spans="1:75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:75" x14ac:dyDescent="0.3">
+      <c r="E72">
+        <f>SUM(Tabela1[[#This Row],[Número aproximado de crianças:]:[Número aproximado de idosos:]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>222</v>
       </c>
@@ -13802,7 +13954,8 @@
         <v>199</v>
       </c>
       <c r="E73">
-        <v>30</v>
+        <f>SUM(Tabela1[[#This Row],[Número aproximado de crianças:]:[Número aproximado de idosos:]])</f>
+        <v>31</v>
       </c>
       <c r="F73">
         <v>7</v>
@@ -14015,7 +14168,13 @@
         <v>82</v>
       </c>
     </row>
-    <row r="75" spans="1:75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:75" x14ac:dyDescent="0.3">
+      <c r="E74">
+        <f>SUM(Tabela1[[#This Row],[Número aproximado de crianças:]:[Número aproximado de idosos:]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>191</v>
       </c>
@@ -14029,6 +14188,7 @@
         <v>199</v>
       </c>
       <c r="E75">
+        <f>SUM(Tabela1[[#This Row],[Número aproximado de crianças:]:[Número aproximado de idosos:]])</f>
         <v>30</v>
       </c>
       <c r="F75">
@@ -14242,7 +14402,13 @@
         <v>82</v>
       </c>
     </row>
-    <row r="77" spans="1:75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:75" x14ac:dyDescent="0.3">
+      <c r="E76">
+        <f>SUM(Tabela1[[#This Row],[Número aproximado de crianças:]:[Número aproximado de idosos:]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>225</v>
       </c>
@@ -14256,7 +14422,8 @@
         <v>199</v>
       </c>
       <c r="E77">
-        <v>8049</v>
+        <f>SUM(Tabela1[[#This Row],[Número aproximado de crianças:]:[Número aproximado de idosos:]])</f>
+        <v>80</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -14469,7 +14636,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="78" spans="1:75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>228</v>
       </c>
@@ -14483,6 +14650,7 @@
         <v>199</v>
       </c>
       <c r="E78">
+        <f>SUM(Tabela1[[#This Row],[Número aproximado de crianças:]:[Número aproximado de idosos:]])</f>
         <v>56</v>
       </c>
       <c r="F78">
@@ -14696,7 +14864,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="79" spans="1:75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>230</v>
       </c>
@@ -14710,6 +14878,7 @@
         <v>199</v>
       </c>
       <c r="E79">
+        <f>SUM(Tabela1[[#This Row],[Número aproximado de crianças:]:[Número aproximado de idosos:]])</f>
         <v>8</v>
       </c>
       <c r="F79">
@@ -14923,7 +15092,13 @@
         <v>82</v>
       </c>
     </row>
-    <row r="81" spans="1:75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:75" x14ac:dyDescent="0.3">
+      <c r="E80">
+        <f>SUM(Tabela1[[#This Row],[Número aproximado de crianças:]:[Número aproximado de idosos:]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>233</v>
       </c>
@@ -14937,6 +15112,7 @@
         <v>199</v>
       </c>
       <c r="E81">
+        <f>SUM(Tabela1[[#This Row],[Número aproximado de crianças:]:[Número aproximado de idosos:]])</f>
         <v>45</v>
       </c>
       <c r="F81">
@@ -15150,7 +15326,13 @@
         <v>82</v>
       </c>
     </row>
-    <row r="83" spans="1:75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:75" x14ac:dyDescent="0.3">
+      <c r="E82">
+        <f>SUM(Tabela1[[#This Row],[Número aproximado de crianças:]:[Número aproximado de idosos:]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>234</v>
       </c>
@@ -15164,6 +15346,7 @@
         <v>95</v>
       </c>
       <c r="E83">
+        <f>SUM(Tabela1[[#This Row],[Número aproximado de crianças:]:[Número aproximado de idosos:]])</f>
         <v>18</v>
       </c>
       <c r="F83">
@@ -15377,7 +15560,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="84" spans="1:75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>235</v>
       </c>
@@ -15391,6 +15574,7 @@
         <v>199</v>
       </c>
       <c r="E84">
+        <f>SUM(Tabela1[[#This Row],[Número aproximado de crianças:]:[Número aproximado de idosos:]])</f>
         <v>30</v>
       </c>
       <c r="F84">
@@ -15604,7 +15788,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>236</v>
       </c>
@@ -15618,7 +15802,8 @@
         <v>199</v>
       </c>
       <c r="E85">
-        <v>25</v>
+        <f>SUM(Tabela1[[#This Row],[Número aproximado de crianças:]:[Número aproximado de idosos:]])</f>
+        <v>29</v>
       </c>
       <c r="F85">
         <v>4</v>
@@ -15831,7 +16016,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="86" spans="1:75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>213</v>
       </c>
@@ -15845,6 +16030,7 @@
         <v>199</v>
       </c>
       <c r="E86">
+        <f>SUM(Tabela1[[#This Row],[Número aproximado de crianças:]:[Número aproximado de idosos:]])</f>
         <v>22</v>
       </c>
       <c r="F86">
